--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2349"/>
+  <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,10 +58434,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -58471,10 +58469,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -58508,10 +58504,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -58545,10 +58539,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -58582,10 +58574,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -58619,10 +58609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -58656,10 +58644,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -58693,10 +58679,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -58726,10 +58710,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -58759,10 +58741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -58792,10 +58772,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -58821,10 +58799,8 @@
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -58850,10 +58826,8 @@
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -58879,10 +58853,8 @@
       </c>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -58908,10 +58880,8 @@
       </c>
       <c r="E2255" t="inlineStr"/>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -58937,10 +58907,8 @@
       </c>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -58970,10 +58938,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -59003,10 +58969,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -59040,10 +59004,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -59061,10 +59023,8 @@
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -59098,10 +59058,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -59135,10 +59093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -59168,10 +59124,8 @@
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -59197,10 +59151,8 @@
       </c>
       <c r="E2264" t="inlineStr"/>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -59226,10 +59178,8 @@
       </c>
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -59255,10 +59205,8 @@
       </c>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -59284,10 +59232,8 @@
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -59305,10 +59251,8 @@
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -59334,10 +59278,8 @@
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -59363,10 +59305,8 @@
       </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -59392,10 +59332,8 @@
       </c>
       <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -59421,10 +59359,8 @@
       </c>
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -59442,90 +59378,72 @@
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+          <t>4.942%</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
+      <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr"/>
       <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2276" t="inlineStr"/>
+      <c r="E2276" t="inlineStr"/>
+      <c r="F2276" t="inlineStr"/>
+      <c r="G2276" t="inlineStr"/>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
@@ -59535,19 +59453,19 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
@@ -59564,19 +59482,19 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
@@ -59588,57 +59506,53 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Continuing Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>1956K</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1952.0K</t>
         </is>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
@@ -59650,214 +59564,254 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr"/>
       <c r="D2283" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr"/>
       <c r="D2284" t="inlineStr">
         <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>0.65M</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr"/>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+        </is>
+      </c>
       <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>46Bcf</t>
+        </is>
+      </c>
       <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJUL</t>
+        </is>
+      </c>
       <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
           <t>3</t>
@@ -59872,13 +59826,13 @@
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>4.270%</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr"/>
@@ -59892,18 +59846,18 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
       <c r="D2291" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2291" t="inlineStr"/>
@@ -59917,52 +59871,68 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/24</t>
+        </is>
+      </c>
       <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>6.75%</t>
+        </is>
+      </c>
       <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
       <c r="D2294" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E2294" t="inlineStr"/>
@@ -59974,28 +59944,16 @@
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2295" t="inlineStr"/>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -60003,28 +59961,16 @@
       </c>
     </row>
     <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2296" t="inlineStr"/>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -60034,158 +59980,174 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr"/>
       <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
+        </is>
+      </c>
       <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr"/>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+      <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
+      <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
@@ -60197,1164 +60159,28 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr"/>
       <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
+      <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2304" t="inlineStr"/>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Sunday July 27 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
       <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
+      <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2315" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2315" t="inlineStr"/>
-      <c r="D2315" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2315" t="inlineStr"/>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2316" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2316" t="inlineStr"/>
-      <c r="D2316" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr"/>
-      <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr"/>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2318" t="inlineStr"/>
-      <c r="D2318" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr"/>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2319" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2319" t="inlineStr"/>
-      <c r="D2319" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr"/>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
-      <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
-    </row>
-    <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2321" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr">
-        <is>
-          <t>1952.0K</t>
-        </is>
-      </c>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr">
-        <is>
-          <t>229.5K</t>
-        </is>
-      </c>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr"/>
-      <c r="D2326" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2326" t="inlineStr"/>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr"/>
-      <c r="D2328" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr"/>
-      <c r="D2329" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr"/>
-      <c r="D2330" t="inlineStr">
-        <is>
-          <t>46Bcf</t>
-        </is>
-      </c>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr"/>
-      <c r="D2331" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr"/>
-      <c r="D2332" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2332" t="inlineStr"/>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr"/>
-      <c r="D2333" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr"/>
-      <c r="D2334" t="inlineStr">
-        <is>
-          <t>4.270%</t>
-        </is>
-      </c>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr"/>
-      <c r="D2335" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr"/>
-      <c r="D2336" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr"/>
-      <c r="D2337" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr"/>
-      <c r="D2338" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr"/>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr"/>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr"/>
-      <c r="C2341" t="inlineStr"/>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr"/>
-      <c r="D2342" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>-9%</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr"/>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr"/>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr"/>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr"/>
-      <c r="C2348" t="inlineStr"/>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>Sunday July 27 2025</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr"/>
-      <c r="C2349" t="inlineStr"/>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2349"/>
+  <dimension ref="A1:G2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,10 +58434,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -58471,10 +58469,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -58508,10 +58504,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -58545,10 +58539,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -58582,10 +58574,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -58619,10 +58609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -58656,10 +58644,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -58693,10 +58679,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -58726,10 +58710,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -58759,10 +58741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -58792,10 +58772,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -58821,10 +58799,8 @@
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -58850,10 +58826,8 @@
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -58879,10 +58853,8 @@
       </c>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -58908,10 +58880,8 @@
       </c>
       <c r="E2255" t="inlineStr"/>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -58937,10 +58907,8 @@
       </c>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -58970,10 +58938,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -59003,10 +58969,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -59040,10 +59004,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -59061,10 +59023,8 @@
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -59098,10 +59058,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -59135,10 +59093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -59168,10 +59124,8 @@
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -59197,10 +59151,8 @@
       </c>
       <c r="E2264" t="inlineStr"/>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -59226,10 +59178,8 @@
       </c>
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -59255,10 +59205,8 @@
       </c>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -59284,10 +59232,8 @@
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -59305,10 +59251,8 @@
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -59334,10 +59278,8 @@
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -59363,10 +59305,8 @@
       </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -59392,10 +59332,8 @@
       </c>
       <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -59421,10 +59359,8 @@
       </c>
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -59442,24 +59378,38 @@
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelJUN</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
       <c r="E2274" t="inlineStr"/>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
@@ -59469,56 +59419,52 @@
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
+          <t>-9.8%</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
       <c r="F2275" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr"/>
       <c r="D2276" t="inlineStr">
         <is>
-          <t>1.256M</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>1.30M</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr">
         <is>
-          <t>1.29M</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G2276" t="inlineStr">
@@ -59530,58 +59476,62 @@
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2278" t="inlineStr"/>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -59593,28 +59543,28 @@
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -59626,19 +59576,19 @@
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
@@ -59650,30 +59600,22 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F2281" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
+      <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
           <t>3</t>
@@ -59683,30 +59625,22 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
+      <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr">
         <is>
           <t>3</t>
@@ -59716,194 +59650,174 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr"/>
       <c r="C2283" t="inlineStr"/>
-      <c r="D2283" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr"/>
-      <c r="F2283" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2283" t="inlineStr"/>
+      <c r="G2283" t="inlineStr"/>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2284" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
+          <t>Sunday July 20 2025</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr"/>
       <c r="C2284" t="inlineStr"/>
-      <c r="D2284" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
+      <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr"/>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2284" t="inlineStr"/>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2285" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
+          <t>Monday July 21 2025</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr"/>
       <c r="C2285" t="inlineStr"/>
-      <c r="D2285" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
+      <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr"/>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMJUN</t>
+        </is>
+      </c>
       <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
-      <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2286" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>4.125%</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJUN</t>
-        </is>
-      </c>
+          <t>Tuesday July 22 2025</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr"/>
       <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D2289" t="inlineStr"/>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr"/>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
-      <c r="D2290" t="inlineStr">
-        <is>
-          <t>4.245%</t>
-        </is>
-      </c>
+      <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Redbook YoYJUL/19</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
       <c r="D2291" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E2291" t="inlineStr"/>
@@ -59917,56 +59831,84 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>Richmond Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
       <c r="E2292" t="inlineStr"/>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="E2293" t="inlineStr"/>
-      <c r="F2293" t="inlineStr"/>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Richmond Fed Services Revenues IndexJUL</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
       <c r="D2294" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E2294" t="inlineStr"/>
-      <c r="F2294" t="inlineStr"/>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G2294" t="inlineStr">
         <is>
           <t>3</t>
@@ -59976,55 +59918,43 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Money SupplyJUN</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
       <c r="D2296" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>$21.94T</t>
         </is>
       </c>
       <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -60034,115 +59964,115 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
+          <t>API Crude Oil Stock ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr"/>
       <c r="D2297" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>19.1M</t>
         </is>
       </c>
       <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2298" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Wednesday July 23 2025</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr"/>
       <c r="C2298" t="inlineStr"/>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>MBA 30-Year Mortgage RateJUL/18</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>$21.94T</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>MBA Mortgage ApplicationsJUL/18</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>-10%</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJUL/18</t>
+        </is>
+      </c>
       <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>253.5</t>
+        </is>
+      </c>
       <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr"/>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
@@ -60152,20 +60082,20 @@
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>MBA Mortgage Refinance IndexJUL/18</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
       <c r="D2302" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>767.6</t>
         </is>
       </c>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -60177,13 +60107,13 @@
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>MBA Purchase IndexJUL/18</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
       <c r="D2303" t="inlineStr">
         <is>
-          <t>-10%</t>
+          <t>159.6</t>
         </is>
       </c>
       <c r="E2303" t="inlineStr"/>
@@ -60197,137 +60127,137 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
+          <t>Existing Home SalesJUN</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr"/>
       <c r="D2304" t="inlineStr">
         <is>
-          <t>253.5</t>
-        </is>
-      </c>
-      <c r="E2304" t="inlineStr"/>
-      <c r="F2304" t="inlineStr"/>
+          <t>4.03M</t>
+        </is>
+      </c>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>4M</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>4.0M</t>
+        </is>
+      </c>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
+          <t>Existing Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr">
         <is>
-          <t>767.6</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/18</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr"/>
       <c r="D2306" t="inlineStr">
         <is>
-          <t>159.6</t>
+          <t>-3.859M</t>
         </is>
       </c>
       <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>Existing Home SalesJUN</t>
+          <t>EIA Gasoline Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr">
         <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
+          <t>3.399M</t>
+        </is>
+      </c>
+      <c r="E2307" t="inlineStr"/>
+      <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr"/>
       <c r="D2308" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.395M</t>
         </is>
       </c>
       <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -60339,20 +60269,20 @@
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr"/>
       <c r="D2309" t="inlineStr">
         <is>
-          <t>-3.859M</t>
+          <t>0.213M</t>
         </is>
       </c>
       <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -60364,20 +60294,20 @@
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr"/>
       <c r="D2310" t="inlineStr">
         <is>
-          <t>3.399M</t>
+          <t>-0.109M</t>
         </is>
       </c>
       <c r="E2310" t="inlineStr"/>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -60389,13 +60319,13 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
+          <t>EIA Distillate Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr"/>
       <c r="D2311" t="inlineStr">
         <is>
-          <t>-0.395M</t>
+          <t>4.173M</t>
         </is>
       </c>
       <c r="E2311" t="inlineStr"/>
@@ -60414,13 +60344,13 @@
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
+          <t>EIA Gasoline Production ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr"/>
       <c r="D2312" t="inlineStr">
         <is>
-          <t>0.213M</t>
+          <t>-0.815M</t>
         </is>
       </c>
       <c r="E2312" t="inlineStr"/>
@@ -60439,13 +60369,13 @@
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr"/>
       <c r="D2313" t="inlineStr">
         <is>
-          <t>-0.109M</t>
+          <t>-0.846M</t>
         </is>
       </c>
       <c r="E2313" t="inlineStr"/>
@@ -60464,13 +60394,13 @@
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr"/>
       <c r="D2314" t="inlineStr">
         <is>
-          <t>4.173M</t>
+          <t>-0.157M</t>
         </is>
       </c>
       <c r="E2314" t="inlineStr"/>
@@ -60484,18 +60414,18 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr"/>
       <c r="D2315" t="inlineStr">
         <is>
-          <t>-0.815M</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2315" t="inlineStr"/>
@@ -60509,18 +60439,18 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr"/>
       <c r="D2316" t="inlineStr">
         <is>
-          <t>-0.846M</t>
+          <t>4.942%</t>
         </is>
       </c>
       <c r="E2316" t="inlineStr"/>
@@ -60534,90 +60464,102 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr"/>
       <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
+      <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr"/>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr"/>
       <c r="D2318" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2318" t="inlineStr"/>
-      <c r="F2318" t="inlineStr"/>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
       <c r="G2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr"/>
       <c r="D2319" t="inlineStr">
         <is>
-          <t>4.942%</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E2319" t="inlineStr"/>
-      <c r="F2319" t="inlineStr"/>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJUL/12</t>
+        </is>
+      </c>
       <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr"/>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>1956K</t>
+        </is>
+      </c>
       <c r="E2320" t="inlineStr"/>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>1952.0K</t>
+        </is>
+      </c>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
@@ -60627,48 +60569,48 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr"/>
       <c r="D2321" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr"/>
       <c r="D2322" t="inlineStr">
         <is>
-          <t>221K</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2322" t="inlineStr"/>
       <c r="F2322" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2322" t="inlineStr">
@@ -60680,82 +60622,86 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr"/>
       <c r="D2323" t="inlineStr">
         <is>
-          <t>1956K</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr">
         <is>
-          <t>1952.0K</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr"/>
       <c r="D2324" t="inlineStr">
         <is>
-          <t>229.5K</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr">
         <is>
-          <t>231.0K</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr"/>
       <c r="D2325" t="inlineStr">
         <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2325" t="inlineStr"/>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>0.65M</t>
+        </is>
+      </c>
       <c r="F2325" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>0.69M</t>
         </is>
       </c>
       <c r="G2325" t="inlineStr">
@@ -60767,24 +60713,24 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr"/>
       <c r="D2326" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G2326" t="inlineStr">
@@ -60796,109 +60742,101 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr"/>
       <c r="D2327" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>46Bcf</t>
         </is>
       </c>
       <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>New Home SalesJUN</t>
+          <t>Kansas Fed Composite IndexJUL</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr"/>
       <c r="D2328" t="inlineStr">
         <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr">
         <is>
-          <t>0.69M</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>New Home Sales MoMJUN</t>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr"/>
       <c r="D2330" t="inlineStr">
         <is>
-          <t>46Bcf</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2330" t="inlineStr"/>
@@ -60912,26 +60850,22 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJUL</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr"/>
       <c r="D2331" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>4.270%</t>
         </is>
       </c>
       <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
           <t>3</t>
@@ -60941,26 +60875,22 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr"/>
       <c r="D2332" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2332" t="inlineStr"/>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -60970,18 +60900,18 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr"/>
       <c r="D2333" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E2333" t="inlineStr"/>
@@ -60995,18 +60925,18 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr"/>
       <c r="D2334" t="inlineStr">
         <is>
-          <t>4.270%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="E2334" t="inlineStr"/>
@@ -61020,18 +60950,18 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr"/>
       <c r="D2335" t="inlineStr">
         <is>
-          <t>2.220%</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E2335" t="inlineStr"/>
@@ -61043,22 +60973,14 @@
       </c>
     </row>
     <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
+      <c r="A2336" t="inlineStr"/>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/24</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr"/>
-      <c r="D2336" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
+      <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr"/>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
@@ -61068,22 +60990,14 @@
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
+      <c r="A2337" t="inlineStr"/>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/24</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr"/>
-      <c r="D2337" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
+      <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
@@ -61095,74 +61009,110 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr"/>
       <c r="C2338" t="inlineStr"/>
-      <c r="D2338" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
+      <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2338" t="inlineStr"/>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr"/>
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>Building Permits FinalJUN</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr"/>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr"/>
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr"/>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2340" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
+        </is>
+      </c>
       <c r="C2341" t="inlineStr"/>
-      <c r="D2341" t="inlineStr"/>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>15.5%</t>
+        </is>
+      </c>
       <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="F2341" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
@@ -61172,87 +61122,63 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMJUN</t>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr"/>
       <c r="D2342" t="inlineStr">
         <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr">
         <is>
-          <t>-9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr"/>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr"/>
+      <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr"/>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
+      <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
+      <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -61262,99 +61188,28 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr"/>
       <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2345" t="inlineStr"/>
+      <c r="G2345" t="inlineStr"/>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
+          <t>Sunday July 27 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
       <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr"/>
-      <c r="C2348" t="inlineStr"/>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr">
-        <is>
-          <t>Sunday July 27 2025</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr"/>
-      <c r="C2349" t="inlineStr"/>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
